--- a/data/trans_dic/P22$concerIndv-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P22$concerIndv-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,25; 12,71</t>
+          <t>7,19; 12,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,24; 13,88</t>
+          <t>7,09; 13,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,02; 12,79</t>
+          <t>6,9; 12,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,37; 18,44</t>
+          <t>12,2; 18,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,65; 14,88</t>
+          <t>7,63; 15,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,29; 11,56</t>
+          <t>5,23; 11,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,01; 17,86</t>
+          <t>10,37; 18,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,78; 22,73</t>
+          <t>16,79; 22,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,07; 12,37</t>
+          <t>8,1; 12,43</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,06; 11,59</t>
+          <t>6,77; 11,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,28; 14,03</t>
+          <t>9,19; 13,96</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,24; 19,53</t>
+          <t>14,95; 19,25</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,65</t>
+          <t>2,19; 6,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,19; 9,56</t>
+          <t>4,16; 9,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,14; 9,75</t>
+          <t>4,29; 10,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,36; 16,8</t>
+          <t>9,34; 17,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,51; 8,57</t>
+          <t>3,73; 8,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,39; 9,13</t>
+          <t>3,29; 9,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,07; 14,61</t>
+          <t>8,13; 14,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,29; 20,7</t>
+          <t>14,61; 21,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 6,83</t>
+          <t>3,49; 6,69</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,48; 8,37</t>
+          <t>4,52; 8,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,93; 11,28</t>
+          <t>6,83; 11,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,42; 17,48</t>
+          <t>12,33; 17,25</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 4,56</t>
+          <t>1,21; 4,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,15</t>
+          <t>1,47; 4,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,87</t>
+          <t>1,0; 3,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 5,15</t>
+          <t>0,94; 4,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,67</t>
+          <t>0,0; 3,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 5,45</t>
+          <t>0,79; 5,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 8,74</t>
+          <t>2,29; 8,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,49; 12,27</t>
+          <t>5,87; 12,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,56</t>
+          <t>1,06; 3,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,79</t>
+          <t>1,49; 3,87</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,23</t>
+          <t>1,8; 4,42</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 6,08</t>
+          <t>1,52; 6,17</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,57; 1,58</t>
+          <t>0,57; 1,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,43</t>
+          <t>0,83; 2,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,09</t>
+          <t>0,76; 2,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,22</t>
+          <t>2,8; 5,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,19</t>
+          <t>1,76; 4,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,41; 5,08</t>
+          <t>2,36; 5,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,32</t>
+          <t>1,2; 3,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 7,41</t>
+          <t>2,67; 7,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 2,27</t>
+          <t>1,16; 2,26</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,62; 3,09</t>
+          <t>1,67; 3,11</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,29</t>
+          <t>1,1; 2,29</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 5,84</t>
+          <t>3,28; 5,71</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1285,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,11</t>
+          <t>0,0; 1,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1294,52 +1295,52 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,81</t>
+          <t>0,32; 1,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,28</t>
+          <t>0,32; 2,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,6</t>
+          <t>0,57; 2,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,49</t>
+          <t>0,79; 2,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,87</t>
+          <t>0,79; 2,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,1</t>
+          <t>1,9; 4,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,68</t>
+          <t>0,34; 1,64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,12</t>
+          <t>0,83; 2,11</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,69; 1,97</t>
+          <t>0,7; 1,96</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,14</t>
+          <t>1,46; 3,0</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,13</t>
+          <t>0,56; 3,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,91</t>
+          <t>0,35; 2,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,62; 7,91</t>
+          <t>2,77; 7,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,41</t>
+          <t>0,0; 8,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,99; 5,12</t>
+          <t>2,95; 5,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,83; 3,98</t>
+          <t>1,8; 4,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,28</t>
+          <t>2,05; 4,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,27; 4,74</t>
+          <t>2,28; 4,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,59; 4,47</t>
+          <t>2,69; 4,5</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,42</t>
+          <t>1,68; 3,47</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,53; 4,72</t>
+          <t>2,43; 4,57</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,39</t>
+          <t>1,99; 4,58</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,28; 3,42</t>
+          <t>2,24; 3,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,67; 4,02</t>
+          <t>2,7; 4,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,69; 3,96</t>
+          <t>2,7; 4,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,52; 6,94</t>
+          <t>4,62; 6,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,36; 4,69</t>
+          <t>3,25; 4,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,75; 4,03</t>
+          <t>2,78; 4,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,75; 5,22</t>
+          <t>3,83; 5,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,22; 8,57</t>
+          <t>6,23; 8,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,97; 3,84</t>
+          <t>2,98; 3,86</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,89; 3,8</t>
+          <t>2,94; 3,82</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,47; 4,36</t>
+          <t>3,5; 4,52</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,89; 7,5</t>
+          <t>5,81; 7,54</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menor, es beneficiaria de Seguro Médico concertado individualmente</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>45978</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>43565</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>41093</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>76353</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>33863</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>24836</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>47720</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>88083</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>79842</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>68401</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>88813</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>164437</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>33968; 59568</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>30984; 59086</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>29617; 55421</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>61644; 92851</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>23390; 46806</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>16432; 35895</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>36005; 62523</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>75117; 102095</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>63061; 96838</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>50893; 88244</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>71340; 108372</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>142447; 183433</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>14700</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>27389</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>25579</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>56941</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>21682</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>19556</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>41068</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>66175</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>36382</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>46946</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>66647</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>123115</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>8032; 24920</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>17416; 39985</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>16135; 37674</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>42244; 77776</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>13882; 32716</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>11113; 31919</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>30250; 54165</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>55904; 80918</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>25784; 49444</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>34181; 64807</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>51158; 83666</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>102933; 144015</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13161</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15674</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10953</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>18667</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1129</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6060</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7757</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>14348</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>14290</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>21734</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>18710</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>33015</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6576; 24874</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9224; 26640</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5218; 20076</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6252; 33300</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6291</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2058; 14876</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3810; 14137</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9793; 21322</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7514; 26745</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13249; 34388</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>12406; 30427</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>12732; 51497</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>12329</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>17003</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>14970</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>40434</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>19578</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>27140</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>17272</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>52066</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>31907</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>44143</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>32243</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>92500</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>7089; 20798</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9624; 28893</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>8757; 25133</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>28989; 54885</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12584; 29776</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>18055; 39746</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>9896; 26737</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>26163; 72989</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>22638; 43991</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>32081; 59807</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>21634; 45082</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>66003; 114981</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5653</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5061</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4579</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>7263</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>11038</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>11453</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>23748</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>8040</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>16691</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>16514</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>28327</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3953</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1944; 11729</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1988; 11891</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1537; 11248</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3259; 14359</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6031; 19239</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5799; 21974</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>15981; 34225</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3141; 15067</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>10514; 26781</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>9522; 26534</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>19219; 39397</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4228</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2890</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>13726</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3905</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>49263</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>30139</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>32483</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>25376</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>53491</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>33029</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>46210</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>29281</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1672; 9341</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>947; 6832</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>7960; 22745</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 19903</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>36759; 65178</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>20021; 44508</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>22147; 46682</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>17322; 36601</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>41482; 69488</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>23124; 47809</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>33191; 62556</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>19889; 45875</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>91173</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>112174</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>111382</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>200879</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>132778</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>118770</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>157755</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>269795</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>223951</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>230944</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>269137</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>470674</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>73145; 111734</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>92262; 137803</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>91359; 135989</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>155972; 234935</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>109676; 158713</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>98861; 143399</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>135139; 184971</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>222631; 306754</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>197854; 256411</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>204643; 266639</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>241577; 312413</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>403863; 523968</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P22$concerIndv-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P22$concerIndv-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
